--- a/Dibujos en Autocad/Proyecto II/Curvas Horizontales y Verticales/Curvas Horizontales.xlsx
+++ b/Dibujos en Autocad/Proyecto II/Curvas Horizontales y Verticales/Curvas Horizontales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="6780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>velocidad directriz</t>
   </si>
@@ -204,6 +204,9 @@
       </rPr>
       <t>i(%)</t>
     </r>
+  </si>
+  <si>
+    <t>Curvas Verticales</t>
   </si>
 </sst>
 </file>
@@ -476,20 +479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -543,6 +534,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +928,7 @@
   <dimension ref="B2:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,187 +941,187 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5">
+      <c r="C2" s="23"/>
+      <c r="D2" s="1">
         <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
+      <c r="C3" s="24"/>
+      <c r="D3" s="3">
         <v>250</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7">
+      <c r="C4" s="25"/>
+      <c r="D4" s="3">
         <v>160</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7">
+      <c r="C5" s="24"/>
+      <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7">
+      <c r="C6" s="24"/>
+      <c r="D6" s="3">
         <v>3.35</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8">
+      <c r="C7" s="22"/>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>350</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>100</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>100</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16">
+      <c r="G16" s="11"/>
+      <c r="H16" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>350</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>100</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <v>100</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19">
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>350</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <v>100</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>100</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19">
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>350</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>100</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="16">
         <v>100</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18">
         <v>0.05</v>
       </c>
     </row>
@@ -1126,223 +1136,223 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="20">
         <v>1</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="20">
         <v>3</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <v>910.75</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>6067.6</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="20">
         <v>6924.6</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="20">
         <v>10052.969999999999</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="20">
         <v>400</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="20">
         <v>300</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="20">
         <v>300</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="20">
         <v>450</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="20">
         <v>100</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="20">
         <v>80</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="20">
         <v>80</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="20">
         <v>100</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="20">
         <v>80</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>80</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="20">
         <v>23.9</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="20">
         <v>8.76</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="20">
         <v>11.65</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="20">
         <v>16.29</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="20">
         <v>187.29</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="20">
         <v>109.26</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="20">
         <v>121.18</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="20">
         <v>168.69</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="20">
         <v>187.29</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="20">
         <v>109.26</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="20">
         <v>121.18</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="20">
         <v>168.69</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="20">
         <v>363.91</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="20">
         <v>215.79</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="20">
         <v>238.16</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="20">
         <v>331.68</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="20">
         <v>5</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="20">
         <v>5</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="20">
         <v>5</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1362,160 +1372,841 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F11"/>
+  <dimension ref="B2:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="28" customWidth="1"/>
+    <col min="8" max="1025" width="10.5703125" style="27" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="G4" s="26">
+        <v>5</v>
+      </c>
+      <c r="H4" s="20">
+        <v>6</v>
+      </c>
+      <c r="I4" s="26">
+        <v>7</v>
+      </c>
+      <c r="J4" s="20">
+        <v>8</v>
+      </c>
+      <c r="K4" s="26">
+        <v>9</v>
+      </c>
+      <c r="L4" s="20">
+        <v>10</v>
+      </c>
+      <c r="M4" s="26">
+        <v>11</v>
+      </c>
+      <c r="N4" s="20">
+        <v>12</v>
+      </c>
+      <c r="O4" s="26">
+        <v>13</v>
+      </c>
+      <c r="P4" s="20">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>15</v>
+      </c>
+      <c r="R4" s="20">
+        <v>16</v>
+      </c>
+      <c r="S4" s="26">
+        <v>17</v>
+      </c>
+      <c r="T4" s="20">
+        <v>18</v>
+      </c>
+      <c r="U4" s="26">
+        <v>19</v>
+      </c>
+      <c r="V4" s="20">
+        <v>20</v>
+      </c>
+      <c r="W4" s="26">
+        <v>21</v>
+      </c>
+      <c r="X4" s="20">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="20">
         <v>28</v>
       </c>
-      <c r="C5" s="24">
+      <c r="AE4" s="26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="20">
         <v>353.81</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>668.86</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>951.88</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>1301.29</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="G5" s="26">
+        <v>1587.47</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1863.04</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2369.96</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2641.97</v>
+      </c>
+      <c r="K5" s="20">
+        <v>2995.22</v>
+      </c>
+      <c r="L5" s="20">
+        <v>3575.33</v>
+      </c>
+      <c r="M5" s="20">
+        <v>4147.96</v>
+      </c>
+      <c r="N5" s="20">
+        <v>4703.59</v>
+      </c>
+      <c r="O5" s="20">
+        <v>5695.32</v>
+      </c>
+      <c r="P5" s="20">
+        <v>6178.82</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>6547.04</v>
+      </c>
+      <c r="R5" s="20">
+        <v>7961.89</v>
+      </c>
+      <c r="S5" s="20">
+        <v>8181.5</v>
+      </c>
+      <c r="T5" s="20">
+        <v>8470.34</v>
+      </c>
+      <c r="U5" s="20">
+        <v>8673.51</v>
+      </c>
+      <c r="V5" s="20">
+        <v>9047.77</v>
+      </c>
+      <c r="W5" s="20">
+        <v>9291.2800000000007</v>
+      </c>
+      <c r="X5" s="20">
+        <v>9558.5</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>9798.5400000000009</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>10591.02</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>10861.9</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>11625.49</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>12153.86</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>12975</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>13492.33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <v>741.12</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <v>741.64</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>747.7</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <v>752.87</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="G6" s="26">
+        <v>759.98</v>
+      </c>
+      <c r="H6" s="20">
+        <v>759.26</v>
+      </c>
+      <c r="I6" s="20">
+        <v>771.2</v>
+      </c>
+      <c r="J6" s="20">
+        <v>760.14</v>
+      </c>
+      <c r="K6" s="20">
+        <v>759.85</v>
+      </c>
+      <c r="L6" s="20">
+        <v>750.17</v>
+      </c>
+      <c r="M6" s="20">
+        <v>750.51</v>
+      </c>
+      <c r="N6" s="20">
+        <v>764.78</v>
+      </c>
+      <c r="O6" s="20">
+        <v>781.78</v>
+      </c>
+      <c r="P6" s="20">
+        <v>793.48</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>789.53</v>
+      </c>
+      <c r="R6" s="20">
+        <v>819.89</v>
+      </c>
+      <c r="S6" s="20">
+        <v>810.01</v>
+      </c>
+      <c r="T6" s="20">
+        <v>811.66</v>
+      </c>
+      <c r="U6" s="20">
+        <v>799.25</v>
+      </c>
+      <c r="V6" s="20">
+        <v>807.47</v>
+      </c>
+      <c r="W6" s="20">
+        <v>806</v>
+      </c>
+      <c r="X6" s="20">
+        <v>809.77</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>810.14</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>820.54</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>820.92</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>838.22</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>841</v>
+      </c>
+      <c r="AD6" s="20">
+        <v>850.4</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>869.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>1.6559999999999999</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <f>D8</f>
         <v>2.141</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <f>E8</f>
         <v>1.4790000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="G7" s="20">
+        <f>F8</f>
+        <v>2.484</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" ref="H7:AE7" si="0">G8</f>
+        <v>-0.26</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.355</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>-4.0659999999999998</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.6679999999999999</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.714</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.073</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="0"/>
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="0"/>
+        <v>-6.109</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.198</v>
+      </c>
+      <c r="W7" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.413</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.151</v>
+      </c>
+      <c r="Z7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.266</v>
+      </c>
+      <c r="AC7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="AE7" s="20">
+        <f t="shared" si="0"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <v>0.16600000000000001</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>2.141</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>1.4790000000000001</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>2.484</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="G8" s="26">
+        <v>-0.26</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2.355</v>
+      </c>
+      <c r="I8" s="20">
+        <v>-4.0659999999999998</v>
+      </c>
+      <c r="J8" s="20">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="K8" s="20">
+        <v>-1.6679999999999999</v>
+      </c>
+      <c r="L8" s="20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M8" s="20">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1.714</v>
+      </c>
+      <c r="O8" s="20">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="P8" s="20">
+        <v>-1.073</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="R8" s="20">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="T8" s="20">
+        <v>-6.109</v>
+      </c>
+      <c r="U8" s="20">
+        <v>2.198</v>
+      </c>
+      <c r="V8" s="20">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="W8" s="20">
+        <v>1.413</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0.151</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>2.266</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>3.78</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>1.792</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>1.49</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>-1.9750000000000001</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>0.66200000000000003</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>-1.0049999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="G9" s="26">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="H9" s="20">
+        <v>-2.6160000000000001</v>
+      </c>
+      <c r="I9" s="20">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="J9" s="20">
+        <v>-3.984</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="L9" s="20">
+        <v>-1.7270000000000001</v>
+      </c>
+      <c r="M9" s="20">
+        <v>-2.5089999999999999</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="O9" s="20">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="P9" s="20">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>-3.1480000000000001</v>
+      </c>
+      <c r="R9" s="20">
+        <v>6.12</v>
+      </c>
+      <c r="S9" s="20">
+        <v>-4.6180000000000003</v>
+      </c>
+      <c r="T9" s="20">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="U9" s="20">
+        <v>-8.3070000000000004</v>
+      </c>
+      <c r="V9" s="20">
+        <v>2.802</v>
+      </c>
+      <c r="W9" s="20">
+        <v>-2.0169999999999999</v>
+      </c>
+      <c r="X9" s="20">
+        <v>1.262</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>-1.1619999999999999</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>1.173</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>-2.1259999999999999</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>1.738</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>-2.6360000000000001</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="24">
-        <v>200</v>
-      </c>
-      <c r="D10" s="24">
-        <v>200</v>
-      </c>
-      <c r="E10" s="24">
-        <v>200</v>
-      </c>
-      <c r="F10" s="24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="C10" s="20">
+        <v>200</v>
+      </c>
+      <c r="D10" s="20">
+        <v>200</v>
+      </c>
+      <c r="E10" s="20">
+        <v>200</v>
+      </c>
+      <c r="F10" s="20">
+        <v>200</v>
+      </c>
+      <c r="G10" s="26">
+        <v>200</v>
+      </c>
+      <c r="H10" s="20">
+        <v>200</v>
+      </c>
+      <c r="I10" s="20">
+        <v>200</v>
+      </c>
+      <c r="J10" s="20">
+        <v>200</v>
+      </c>
+      <c r="K10" s="20">
+        <v>200</v>
+      </c>
+      <c r="L10" s="20">
+        <v>200</v>
+      </c>
+      <c r="M10" s="20">
+        <v>200</v>
+      </c>
+      <c r="N10" s="20">
+        <v>200</v>
+      </c>
+      <c r="O10" s="20">
+        <v>200</v>
+      </c>
+      <c r="P10" s="20">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>200</v>
+      </c>
+      <c r="R10" s="20">
+        <v>200</v>
+      </c>
+      <c r="S10" s="20">
+        <v>200</v>
+      </c>
+      <c r="T10" s="20">
+        <v>200</v>
+      </c>
+      <c r="U10" s="20">
+        <v>200</v>
+      </c>
+      <c r="V10" s="20">
+        <v>200</v>
+      </c>
+      <c r="W10" s="20">
+        <v>200</v>
+      </c>
+      <c r="X10" s="20">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>200</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>200</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="20">
         <v>13422.26</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>-10125.26</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>30211.33</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>-19898.62</v>
       </c>
+      <c r="G11" s="26">
+        <v>7287.89</v>
+      </c>
+      <c r="H11" s="20">
+        <v>-7646.59</v>
+      </c>
+      <c r="I11" s="20">
+        <v>3114.32</v>
+      </c>
+      <c r="J11" s="20">
+        <v>-5019.7700000000004</v>
+      </c>
+      <c r="K11" s="20">
+        <v>12609.43</v>
+      </c>
+      <c r="L11" s="20">
+        <v>-11582.44</v>
+      </c>
+      <c r="M11" s="20">
+        <v>-7970.28</v>
+      </c>
+      <c r="N11" s="20">
+        <v>23439.17</v>
+      </c>
+      <c r="O11" s="20">
+        <v>-28325.25</v>
+      </c>
+      <c r="P11" s="20">
+        <v>5724.98</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>-6353.67</v>
+      </c>
+      <c r="R11" s="20">
+        <v>3268.08</v>
+      </c>
+      <c r="S11" s="20">
+        <v>-4331.1099999999997</v>
+      </c>
+      <c r="T11" s="20">
+        <v>2992.98</v>
+      </c>
+      <c r="U11" s="20">
+        <v>-2407.59</v>
+      </c>
+      <c r="V11" s="20">
+        <v>7137.09</v>
+      </c>
+      <c r="W11" s="20">
+        <v>-9914.2099999999991</v>
+      </c>
+      <c r="X11" s="20">
+        <v>15851.12</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>-17218.689999999999</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>17056.97</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>-9408.1</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>11504.27</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>-32429.88</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>-7586.14</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>10058.35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
